--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +45,21 @@
   </si>
   <si>
     <t>未开始</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>展示分页页签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据加载等待页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加Log类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -82,7 +97,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -225,11 +240,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -242,6 +296,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -546,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G6"/>
+  <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,7 +614,8 @@
     <col min="2" max="2" width="5.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="2.125" style="1"/>
   </cols>
@@ -593,39 +652,73 @@
         <v>43441</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="F3" s="7">
+        <v>43445</v>
+      </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7">
+        <v>43445</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F4" s="6"/>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7">
+        <v>43445</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F5" s="6"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="12">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="14">
+        <v>43445</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E7">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -670,9 +670,11 @@
         <v>43445</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="F4" s="7">
+        <v>43447</v>
+      </c>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
@@ -686,9 +688,11 @@
         <v>43445</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="F5" s="7">
+        <v>43447</v>
+      </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,9 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未开始</t>
-  </si>
-  <si>
     <t>已完成</t>
   </si>
   <si>
@@ -59,6 +56,19 @@
   </si>
   <si>
     <t>添加Log类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+  </si>
+  <si>
+    <t>2018/12/13：引入log4net类库
+2018/12/16：在类库Lib和应用程序中分别引入log4net。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/12/13：引入Bootstrap分页样式
+2018/12/16：实现页下标检索数据功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -283,23 +293,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -608,7 +651,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.125" style="1"/>
     <col min="2" max="2" width="5.375" style="1" bestFit="1" customWidth="1"/>
@@ -616,12 +659,12 @@
     <col min="4" max="4" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="2.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:7" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -641,7 +684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5">
         <v>1</v>
       </c>
@@ -652,72 +695,76 @@
         <v>43441</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="7">
         <v>43445</v>
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
         <v>43445</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="7">
-        <v>43447</v>
-      </c>
-      <c r="G4" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7">
         <v>43445</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="7">
         <v>43447</v>
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="12">
+    <row r="6" spans="2:7" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="B6" s="10">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="14">
+      <c r="C6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="12">
         <v>43445</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="15"/>
+      <c r="F6" s="7">
+        <v>43450</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
+    <row r="7" spans="2:7" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,9 +57,6 @@
   <si>
     <t>添加Log类</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
   </si>
   <si>
     <t>2018/12/13：引入log4net类库
@@ -68,7 +65,23 @@
   </si>
   <si>
     <t>2018/12/13：引入Bootstrap分页样式
-2018/12/16：实现页下标检索数据功能</t>
+2018/12/16：实现页下标检索数据功能
+2018/12/16：修改页下标HTML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备E商数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始</t>
+  </si>
+  <si>
+    <t>完成经销商列表页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bootstrap左侧菜单栏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -298,15 +311,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -342,6 +346,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,9 +660,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G7"/>
+  <dimension ref="B1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -663,117 +678,175 @@
     <col min="8" max="16384" width="2.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="5">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="4">
         <v>43441</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="4">
         <v>43445</v>
       </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="2:7" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="B4" s="5">
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="2:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="4">
         <v>43445</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4">
+        <v>43450</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4">
+        <v>43445</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4">
+        <v>43447</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="9">
+        <v>43445</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4">
+        <v>43450</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="9" t="s">
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7">
-        <v>43445</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D7" s="9">
+        <v>43450</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B8" s="7">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="9">
+        <v>43450</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="7">
         <v>7</v>
       </c>
-      <c r="F5" s="7">
-        <v>43447</v>
-      </c>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="2:7" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="B6" s="10">
-        <v>4</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="12">
-        <v>43445</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="C9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="9">
         <v>43450</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
+      <c r="E9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E11">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$G$2</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,11 +59,6 @@
   </si>
   <si>
     <t>添加Log类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/12/13：引入log4net类库
-2018/12/16：在类库Lib和应用程序中分别引入log4net。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -77,11 +75,53 @@
     <t>未开始</t>
   </si>
   <si>
+    <t>bootstrap左侧菜单栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成产品列表页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>完成经销商列表页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bootstrap左侧菜单栏</t>
+    <t>未开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前、后台分页重构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志文件按天生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成产品类别列表页面（利用前后重构的方法）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成产品类别编辑页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成产品类别编辑页面验证功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/12/17:SQL Server数据库从高版本复制到低版本。
+1、从高版本中导出数据库架构脚本（不含数据）。
+2、在低版本数据库中运行脚本生成数据库。
+3、从高版本数据中导出数据到低版本数据库中，完成数据库从高版本到低版本的复制。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/12/13：引入log4net类库
+1、类库项目Lib和APP应用程序项目都要导入log4net库。
+2、调用log4net写日志，未能重构出可重用的日志类。
+2018/12/16：在类库Lib和应用程序中分别引入log4net。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -306,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -355,6 +395,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -660,21 +703,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G11"/>
+  <dimension ref="B1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.125" style="1"/>
-    <col min="2" max="2" width="5.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="2.125" style="1"/>
   </cols>
   <sheetData>
@@ -734,7 +773,7 @@
         <v>43450</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
@@ -755,7 +794,7 @@
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:7" ht="66" x14ac:dyDescent="0.15">
       <c r="B6" s="7">
         <v>4</v>
       </c>
@@ -772,24 +811,28 @@
         <v>43450</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="82.5" x14ac:dyDescent="0.15">
       <c r="B7" s="7">
         <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="9">
         <v>43450</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="F7" s="9">
+        <v>43451</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" s="7">
@@ -802,9 +845,11 @@
         <v>43450</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="F8" s="9">
+        <v>43451</v>
+      </c>
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.15">
@@ -812,37 +857,158 @@
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" s="9">
         <v>43450</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="8"/>
+      <c r="B10" s="7">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="9">
+        <v>43451</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="F10" s="9"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="7">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="9">
+        <v>43451</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="7">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="9">
+        <v>43451</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="7">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="9">
+        <v>43451</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="7">
+        <v>12</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="9">
+        <v>43451</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="7">
+        <v>13</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="9">
+        <v>43451</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
     </row>
   </sheetData>
+  <autoFilter ref="B2:G2"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E20">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +122,10 @@
 1、类库项目Lib和APP应用程序项目都要导入log4net库。
 2、调用log4net写日志，未能重构出可重用的日志类。
 2018/12/16：在类库Lib和应用程序中分别引入log4net。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页页标列表部分，展示记录条数，页面数，当前记录范围编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -711,7 +715,7 @@
   <cols>
     <col min="1" max="1" width="2.125" style="1"/>
     <col min="2" max="2" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="47.125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="2.125" style="1"/>
@@ -965,9 +969,15 @@
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="7">
+        <v>14</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="9">
+        <v>43452</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="9"/>
       <c r="G16" s="10"/>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,7 +421,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,11 +128,22 @@
     <t>分页页标列表部分，展示记录条数，页面数，当前记录范围编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2018/12/26:修改了log4net.config文件，不仅解决了【日志文件按天产生】的文件，还解决了，应用程序在运行过程中，不能删除日志文件的问题，具体解决方法看今天提交的png文件资料。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/12/26（补充）:引入layer.js，调用layer.loading()方法，实现加载等待页面。但带来的问题是，等待图标不展示在屏幕中心。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,7 +432,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -717,7 +728,7 @@
     <col min="2" max="2" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.75" style="1" customWidth="1"/>
     <col min="8" max="16384" width="2.125" style="1"/>
   </cols>
   <sheetData>
@@ -780,7 +791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:7" ht="33" x14ac:dyDescent="0.15">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -791,12 +802,14 @@
         <v>43445</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F5" s="4">
         <v>43447</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="2:7" ht="66" x14ac:dyDescent="0.15">
       <c r="B6" s="7">
@@ -904,7 +917,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:7" ht="49.5" x14ac:dyDescent="0.15">
       <c r="B12" s="7">
         <v>10</v>
       </c>
@@ -915,10 +928,14 @@
         <v>43451</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="F12" s="9">
+        <v>43460</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B13" s="7">
@@ -978,7 +995,9 @@
       <c r="D16" s="9">
         <v>43452</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="F16" s="9"/>
       <c r="G16" s="10"/>
     </row>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,10 +80,6 @@
   </si>
   <si>
     <t>完成产品列表页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成经销商列表页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -129,15 +125,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018/12/26:修改了log4net.config文件，不仅解决了【日志文件按天产生】的文件，还解决了，应用程序在运行过程中，不能删除日志文件的问题，具体解决方法看今天提交的png文件资料。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2018/12/26（补充）:引入layer.js，调用layer.loading()方法，实现加载等待页面。但带来的问题是，等待图标不展示在屏幕中心。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>进行中</t>
+  </si>
+  <si>
+    <t>完成经销商分页列表页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/12/26 实现步骤：
+(1)编写获取经销商信息的分页SQL
+(2)调用数据库访问类取得数据
+(3)将数据转换成Json格式返回
+(4)前台ajax调取后台方法获取经销商分页数据Json格式
+(5)编写前台表格HTML
+(6)编写前台页码HTML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/12/26 修改了log4net.config文件，不仅解决了【日志文件按天产生】的文件，还解决了，应用程序在运行过程中，不能删除日志文件的问题，具体解决方法看今天提交的png文件资料。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -720,7 +730,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -802,13 +814,13 @@
         <v>43445</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5" s="4">
         <v>43447</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="66" x14ac:dyDescent="0.15">
@@ -828,7 +840,7 @@
         <v>43450</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="82.5" x14ac:dyDescent="0.15">
@@ -848,7 +860,7 @@
         <v>43451</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.15">
@@ -885,34 +897,36 @@
       <c r="F9" s="9"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:7" ht="115.5" x14ac:dyDescent="0.15">
       <c r="B10" s="7">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D10" s="9">
         <v>43451</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B11" s="7">
         <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="9">
         <v>43451</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
@@ -922,7 +936,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="9">
         <v>43451</v>
@@ -934,7 +948,7 @@
         <v>43460</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
@@ -942,13 +956,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="9">
         <v>43451</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="10"/>
@@ -958,13 +972,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="9">
         <v>43451</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
@@ -974,13 +988,13 @@
         <v>13</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="9">
         <v>43451</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="10"/>
@@ -990,13 +1004,13 @@
         <v>14</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="9">
         <v>43452</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="10"/>
@@ -1036,7 +1050,7 @@
   </sheetData>
   <autoFilter ref="B2:G2"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E20">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313E59EB-830A-4BC5-B99B-62F27C45E0C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$G$16</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,10 +85,6 @@
   </si>
   <si>
     <t>未开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前、后台分页重构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -136,24 +133,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2018/12/26 修改了log4net.config文件，不仅解决了【日志文件按天产生】的文件，还解决了，应用程序在运行过程中，不能删除日志文件的问题，具体解决方法看今天提交的png文件资料。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2018/12/26 实现步骤：
-(1)编写获取经销商信息的分页SQL
-(2)调用数据库访问类取得数据
-(3)将数据转换成Json格式返回
-(4)前台ajax调取后台方法获取经销商分页数据Json格式
-(5)编写前台表格HTML
-(6)编写前台页码HTML</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/12/26 修改了log4net.config文件，不仅解决了【日志文件按天产生】的文件，还解决了，应用程序在运行过程中，不能删除日志文件的问题，具体解决方法看今天提交的png文件资料。</t>
+(1)编写获取经销商信息的分页SQL（Index,Count）
+(2)编写获取经销商分页数据方法，调用数据库访问类，传入分页SQL语句取得数据，并将数据转换成Json格式返回
+(3)前台ajax调取后台方法获取经销商分页数据Json格式
+(4)编写前台表格HTML
+(5)编写前台页码HTML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前、后台分页重构，重写 订单、产品、经销商列表页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习VS关联Git库及常规操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -442,7 +446,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -517,6 +521,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -552,6 +573,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -727,12 +765,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="B1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -765,7 +802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -783,7 +820,7 @@
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="2:7" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:7" ht="49.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -814,16 +851,16 @@
         <v>43445</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="4">
         <v>43447</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="66" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="66" hidden="1" x14ac:dyDescent="0.15">
       <c r="B6" s="7">
         <v>4</v>
       </c>
@@ -840,10 +877,10 @@
         <v>43450</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="82.5" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="82.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B7" s="7">
         <v>5</v>
       </c>
@@ -860,10 +897,10 @@
         <v>43451</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B8" s="7">
         <v>6</v>
       </c>
@@ -897,20 +934,22 @@
       <c r="F9" s="9"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="2:7" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:7" ht="115.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10" s="7">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="9">
         <v>43451</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="F10" s="9">
+        <v>43460</v>
+      </c>
       <c r="G10" s="10" t="s">
         <v>28</v>
       </c>
@@ -920,7 +959,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D11" s="9">
         <v>43451</v>
@@ -931,12 +970,12 @@
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="2:7" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:7" ht="49.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B12" s="7">
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="9">
         <v>43451</v>
@@ -948,7 +987,7 @@
         <v>43460</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
@@ -956,7 +995,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="9">
         <v>43451</v>
@@ -972,7 +1011,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="9">
         <v>43451</v>
@@ -988,7 +1027,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="9">
         <v>43451</v>
@@ -999,27 +1038,37 @@
       <c r="F15" s="9"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B16" s="7">
         <v>14</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="9">
         <v>43452</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="F16" s="9">
+        <v>43460</v>
+      </c>
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="8"/>
+      <c r="B17" s="7">
+        <v>14</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="9">
+        <v>43460</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="F17" s="9"/>
       <c r="G17" s="10"/>
     </row>
@@ -1048,10 +1097,17 @@
       <c r="G20" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:G2"/>
+  <autoFilter ref="B2:G16" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="进行中"/>
+        <filter val="未开始"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E20">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E20" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313E59EB-830A-4BC5-B99B-62F27C45E0C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B4D4E1-E2BF-4DC7-AF00-53CF61E8F33D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,9 +124,6 @@
   <si>
     <t>2018/12/26（补充）:引入layer.js，调用layer.loading()方法，实现加载等待页面。但带来的问题是，等待图标不展示在屏幕中心。</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
   </si>
   <si>
     <t>完成经销商分页列表页面</t>
@@ -151,6 +148,10 @@
   </si>
   <si>
     <t>学习VS关联Git库及常规操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/12/27：整理前台JS分页类，一天。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -851,7 +852,7 @@
         <v>43445</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F5" s="4">
         <v>43447</v>
@@ -929,9 +930,11 @@
         <v>43450</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="F9" s="9">
+        <v>43462</v>
+      </c>
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="2:7" ht="115.5" hidden="1" x14ac:dyDescent="0.15">
@@ -939,7 +942,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="9">
         <v>43451</v>
@@ -951,7 +954,7 @@
         <v>43460</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
@@ -959,16 +962,20 @@
         <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="9">
         <v>43451</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="F11" s="9">
+        <v>43461</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="2:7" ht="49.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B12" s="7">
@@ -987,7 +994,7 @@
         <v>43460</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
@@ -1061,7 +1068,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="9">
         <v>43460</v>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B4D4E1-E2BF-4DC7-AF00-53CF61E8F33D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$G$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$G$17</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,10 +118,6 @@
   </si>
   <si>
     <t>分页页标列表部分，展示记录条数，页面数，当前记录范围编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/12/26（补充）:引入layer.js，调用layer.loading()方法，实现加载等待页面。但带来的问题是，等待图标不展示在屏幕中心。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -151,14 +146,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018/12/27：整理前台JS分页类，一天。</t>
+    <t>进行中</t>
+  </si>
+  <si>
+    <t>2018/12/26
+引入layer.js，调用layer.loading()方法，实现加载等待页面。但带来的问题是，等待图标不展示在屏幕中心。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/12/28
+1、在项目中创建了一个开始页面（主页面）
+2、主页面上划分为上、中、下三个区域，其中中间区域又划分为左、右两个区域。上面区域将用于展示项目logo，项目名称，当前账户等信息；中间左边区域用于展示系统菜单，右边区域（内容区域）用于展示不同菜单对应的页面；下面区域用户展示系统版权，网站备案等其他信息。
+3、主页面上引入通用的css和js，嵌入中间右边区域的页面就不需要引入通用的css和js了，只需要引入仅自身页面需要的js文件。
+4、现有框架的实现方式需要改进，新框架的实现方式需要调查。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/12/27
+整理前台JS分页类，一天，仍需改进；后台分页框架未整理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/12/28
+利用重构方法写分页列表页面，耗时30m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -447,7 +464,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -522,23 +539,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -574,23 +574,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -766,7 +749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="B1:G20"/>
   <sheetViews>
@@ -841,7 +824,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:7" ht="49.5" x14ac:dyDescent="0.15">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -852,13 +835,13 @@
         <v>43445</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F5" s="4">
         <v>43447</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="66" hidden="1" x14ac:dyDescent="0.15">
@@ -919,7 +902,7 @@
       </c>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:7" ht="165" x14ac:dyDescent="0.15">
       <c r="B9" s="7">
         <v>7</v>
       </c>
@@ -930,19 +913,21 @@
         <v>43450</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F9" s="9">
         <v>43462</v>
       </c>
-      <c r="G9" s="10"/>
+      <c r="G9" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="2:7" ht="115.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10" s="7">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="9">
         <v>43451</v>
@@ -954,27 +939,27 @@
         <v>43460</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="33" x14ac:dyDescent="0.15">
       <c r="B11" s="7">
         <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="9">
         <v>43451</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F11" s="9">
         <v>43461</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="49.5" hidden="1" x14ac:dyDescent="0.15">
@@ -994,10 +979,10 @@
         <v>43460</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="33" hidden="1" x14ac:dyDescent="0.15">
       <c r="B13" s="7">
         <v>11</v>
       </c>
@@ -1008,10 +993,14 @@
         <v>43451</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="F13" s="9">
+        <v>43462</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B14" s="7">
@@ -1068,7 +1057,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="9">
         <v>43460</v>
@@ -1104,7 +1093,7 @@
       <c r="G20" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:G16" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="B2:G17">
     <filterColumn colId="3">
       <filters>
         <filter val="进行中"/>
@@ -1114,7 +1103,7 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E20" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E20">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -154,21 +154,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2018/12/27
+整理前台JS分页类，一天，仍需改进；后台分页框架未整理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2018/12/28
+利用重构方法写分页列表页面，耗时30m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2018/12/28
 1、在项目中创建了一个开始页面（主页面）
 2、主页面上划分为上、中、下三个区域，其中中间区域又划分为左、右两个区域。上面区域将用于展示项目logo，项目名称，当前账户等信息；中间左边区域用于展示系统菜单，右边区域（内容区域）用于展示不同菜单对应的页面；下面区域用户展示系统版权，网站备案等其他信息。
 3、主页面上引入通用的css和js，嵌入中间右边区域的页面就不需要引入通用的css和js了，只需要引入仅自身页面需要的js文件。
-4、现有框架的实现方式需要改进，新框架的实现方式需要调查。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/12/27
-整理前台JS分页类，一天，仍需改进；后台分页框架未整理。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/12/28
-利用重构方法写分页列表页面，耗时30m</t>
+4、现有框架的实现方式需要改进，新框架的实现方式需要调查。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">弊端：
+2018/12/29
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1、html中用到bootstrap的样式时，不再有提示。
+</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -176,7 +203,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +219,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -753,7 +788,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -902,7 +939,7 @@
       </c>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="2:7" ht="165" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:7" ht="231" x14ac:dyDescent="0.15">
       <c r="B9" s="7">
         <v>7</v>
       </c>
@@ -919,7 +956,7 @@
         <v>43462</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="115.5" hidden="1" x14ac:dyDescent="0.15">
@@ -959,7 +996,7 @@
         <v>43461</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="49.5" hidden="1" x14ac:dyDescent="0.15">
@@ -999,7 +1036,7 @@
         <v>43462</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.15">

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC52C348-EFE1-4FBD-946E-269772FD8C0B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,18 +73,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未开始</t>
-  </si>
-  <si>
     <t>bootstrap左侧菜单栏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>完成产品列表页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未开始</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -161,6 +155,11 @@
   <si>
     <t>2018/12/28
 利用重构方法写分页列表页面，耗时30m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/12/30
+利用jquery.valiation.min.js插件实现必输项验证。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -182,7 +181,28 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">弊端：
-2018/12/29
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2018/12/29</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -198,11 +218,19 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2018/12/30
+1、学习了【克隆】、【暂存】、【提交临时数据】、【拉取】、【推送】
+2、将【暂存】的文件【取消暂存】，为了重新暂存。
+3、将【提交到本地库】的文件，【重置】到工作区，为了重新提交。
+4、在VS，团队资源管理器，双击修改的文件，能看到具体的修改内容。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -499,7 +527,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -574,6 +602,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -609,6 +654,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -784,13 +846,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="B1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -798,7 +858,7 @@
     <col min="2" max="2" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="58.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="2.125" style="1"/>
   </cols>
   <sheetData>
@@ -872,13 +932,11 @@
         <v>43445</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="4">
-        <v>43447</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="66" hidden="1" x14ac:dyDescent="0.15">
@@ -898,7 +956,7 @@
         <v>43450</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="82.5" hidden="1" x14ac:dyDescent="0.15">
@@ -918,7 +976,7 @@
         <v>43451</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
@@ -926,7 +984,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="9">
         <v>43450</v>
@@ -939,24 +997,22 @@
       </c>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="2:7" ht="231" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:7" ht="214.5" x14ac:dyDescent="0.15">
       <c r="B9" s="7">
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="9">
         <v>43450</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="9">
-        <v>43462</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F9" s="9"/>
       <c r="G9" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="115.5" hidden="1" x14ac:dyDescent="0.15">
@@ -964,7 +1020,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" s="9">
         <v>43451</v>
@@ -976,7 +1032,7 @@
         <v>43460</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="33" x14ac:dyDescent="0.15">
@@ -984,19 +1040,17 @@
         <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="9">
         <v>43451</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="F11" s="9">
-        <v>43461</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="49.5" hidden="1" x14ac:dyDescent="0.15">
@@ -1004,7 +1058,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" s="9">
         <v>43451</v>
@@ -1016,7 +1070,7 @@
         <v>43460</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="33" hidden="1" x14ac:dyDescent="0.15">
@@ -1024,7 +1078,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" s="9">
         <v>43451</v>
@@ -1036,7 +1090,7 @@
         <v>43462</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.15">
@@ -1044,39 +1098,45 @@
         <v>12</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D14" s="9">
         <v>43451</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="F14" s="9">
+        <v>43464</v>
+      </c>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:7" ht="33" x14ac:dyDescent="0.15">
       <c r="B15" s="7">
         <v>13</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D15" s="9">
         <v>43451</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="F15" s="9">
+        <v>43464</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="B16" s="7">
         <v>14</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16" s="9">
         <v>43452</v>
@@ -1089,21 +1149,23 @@
       </c>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" ht="82.5" x14ac:dyDescent="0.15">
       <c r="B17" s="7">
         <v>14</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17" s="9">
         <v>43460</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="7"/>
@@ -1130,7 +1192,7 @@
       <c r="G20" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:G17">
+  <autoFilter ref="B2:G17" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="3">
       <filters>
         <filter val="进行中"/>
@@ -1140,7 +1202,7 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E20" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC52C348-EFE1-4FBD-946E-269772FD8C0B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E40BE9-9260-4100-9EF5-975CB4EA5790}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,14 +11,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$G$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$G$18</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,6 +226,17 @@
 4、在VS，团队资源管理器，双击修改的文件，能看到具体的修改内容。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>分页列表增加【操作列】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始</t>
+  </si>
+  <si>
+    <t>上级序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -270,7 +281,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -413,50 +424,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -476,18 +448,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -506,7 +466,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -848,7 +814,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="B1:G20"/>
+  <dimension ref="B1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -859,31 +825,35 @@
     <col min="3" max="3" width="51" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="58.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="2.125" style="1"/>
+    <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="2.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="14" t="s">
+    <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="H2" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -899,9 +869,10 @@
       <c r="F3" s="4">
         <v>43445</v>
       </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="2:7" ht="49.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="G3" s="3"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="2:8" ht="49.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -917,11 +888,12 @@
       <c r="F4" s="4">
         <v>43450</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="2:8" ht="49.5" x14ac:dyDescent="0.15">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -935,264 +907,290 @@
         <v>27</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" ht="66" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="7">
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="2:8" ht="66" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="4">
         <v>43445</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="4">
         <v>43450</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" ht="82.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="7">
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="2:8" ht="82.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="4">
         <v>43450</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="4">
         <v>43451</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="7">
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="4">
         <v>43450</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="4">
         <v>43451</v>
       </c>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="2:7" ht="214.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="7">
+      <c r="G8" s="13"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="2:8" ht="214.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="4">
         <v>43450</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" ht="115.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="7">
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="2:8" ht="115.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="2">
         <v>8</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="4">
         <v>43451</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="4">
         <v>43460</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="B11" s="7">
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="2:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="B11" s="2">
         <v>9</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="4">
         <v>43451</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" ht="49.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="7">
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="2:8" ht="49.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="2">
         <v>10</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="4">
         <v>43451</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="4">
         <v>43460</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" ht="33" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="7">
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="2:8" ht="33" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="2">
         <v>11</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="4">
         <v>43451</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="4">
         <v>43462</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B14" s="7">
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="2">
         <v>12</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="4">
         <v>43451</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="4">
         <v>43464</v>
       </c>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="2:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="B15" s="7">
+      <c r="G14" s="13"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="2:8" ht="33" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="2">
         <v>13</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="4">
         <v>43451</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="4">
         <v>43464</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="7">
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="2">
         <v>14</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="4">
         <v>43452</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="4">
         <v>43460</v>
       </c>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="2:7" ht="82.5" x14ac:dyDescent="0.15">
-      <c r="B17" s="7">
+      <c r="G16" s="13"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="B17" s="2">
         <v>14</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="4">
         <v>43460</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="4">
+        <v>43464</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:G17" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="B2:G18" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="3">
       <filters>
         <filter val="进行中"/>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E40BE9-9260-4100-9EF5-975CB4EA5790}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC90033-B190-4D12-A778-12F29E203C91}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +235,11 @@
   </si>
   <si>
     <t>上级序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/12/31
+1、将前台分页列表类中的HTML拼接，改为jquery方法调用。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -816,7 +821,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1152,7 +1159,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:8" ht="33" x14ac:dyDescent="0.15">
       <c r="B18" s="2">
         <v>15</v>
       </c>
@@ -1166,7 +1173,9 @@
         <v>35</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="13"/>
+      <c r="G18" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="H18" s="6">
         <v>9</v>
       </c>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC90033-B190-4D12-A778-12F29E203C91}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -238,15 +237,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018/12/31
-1、将前台分页列表类中的HTML拼接，改为jquery方法调用。</t>
+    <t xml:space="preserve">2018/12/31
+1、将前台分页列表类中的HTML拼接，改为jquery方法调用(创建节点)。
+2、HTML标签事件调用类方法？在事件处理程序中，创建类对象并初始化，调用类方法。
+3、在类方法中动态生成HTML标签，该标签事件处理程序中调用类方法？问题在于：在事件处理程序中如何能引用到类对象，进而调用类方法？将类对象作为参数传入事件处理程序中。
+4、定义全局的分页列表对象。
+5、定义局部的分页列表对象。（1）用jquery创建HTML节点。（2）用jquery on方法绑定HTML标签处理程序。（3）传入分页类对象参数至方法处理程序。（4）实现了定义局部的分页列表对象。
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -498,7 +502,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -573,23 +577,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -625,23 +612,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -817,11 +787,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="B1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -1159,7 +1129,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="2:8" ht="33" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:8" ht="198" x14ac:dyDescent="0.15">
       <c r="B18" s="2">
         <v>15</v>
       </c>
@@ -1199,7 +1169,7 @@
       <c r="H20" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:G18" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="B2:G18">
     <filterColumn colId="3">
       <filters>
         <filter val="进行中"/>
@@ -1209,7 +1179,7 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E20" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E20">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,9 +228,6 @@
   <si>
     <t>分页列表增加【操作列】</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未开始</t>
   </si>
   <si>
     <t>上级序号</t>
@@ -792,7 +789,7 @@
   <dimension ref="B1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -827,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
@@ -1140,11 +1137,11 @@
         <v>43464</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18" s="6">
         <v>9</v>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A1FC1F-1AD9-48DD-A1F5-A6260D83CF23}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,11 +244,22 @@
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>产品特性管理页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始</t>
+  </si>
+  <si>
+    <t>增加二级子菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -287,7 +299,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -430,11 +442,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -479,6 +530,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -499,7 +565,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -574,6 +640,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -609,6 +692,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -784,12 +884,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="B1:H20"/>
+  <dimension ref="B1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1148,25 +1248,59 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3"/>
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="4">
+        <v>43467</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="G19" s="13"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="16">
+        <v>17</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="18">
+        <v>43467</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:G18">
+  <autoFilter ref="B2:G18" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="3">
       <filters>
         <filter val="进行中"/>
@@ -1176,7 +1310,7 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E22" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A1FC1F-1AD9-48DD-A1F5-A6260D83CF23}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60101D10-722E-42FE-BA5A-D905CC92017F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60101D10-722E-42FE-BA5A-D905CC92017F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E587C223-6FF1-4172-A2D4-F15962DCC973}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,6 +253,10 @@
   </si>
   <si>
     <t>增加二级子菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页页码列表显示首页和最后一页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -886,11 +890,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="B1:H22"/>
+  <dimension ref="B1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1282,22 +1284,39 @@
       <c r="H20" s="20"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="17"/>
+      <c r="B21" s="16">
+        <v>18</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="18">
+        <v>43471</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="F21" s="18"/>
       <c r="G21" s="19"/>
       <c r="H21" s="20"/>
     </row>
-    <row r="22" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:G18" xr:uid="{00000000-0009-0000-0000-000000000000}">
@@ -1310,7 +1329,7 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E22" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E23" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E587C223-6FF1-4172-A2D4-F15962DCC973}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56FE41D-E8C8-43B1-B609-EBC0FE9BE889}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,6 +257,18 @@
   </si>
   <si>
     <t>分页页码列表显示首页和最后一页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加产品类型管理页面，产品类型可导入。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加电线、电缆基础型号维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加电线、电缆特征型号维护</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -890,7 +902,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="B1:H23"/>
+  <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1301,22 +1313,82 @@
       <c r="H21" s="20"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="17"/>
+      <c r="B22" s="16">
+        <v>19</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="18">
+        <v>43471</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="F22" s="18"/>
       <c r="G22" s="19"/>
       <c r="H22" s="20"/>
     </row>
-    <row r="23" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="16">
+        <v>20</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="18">
+        <v>43471</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="16">
+        <v>21</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="18">
+        <v>43471</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:G18" xr:uid="{00000000-0009-0000-0000-000000000000}">
@@ -1329,7 +1401,7 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E23" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E27" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ToDoList.xlsx
+++ b/ToDoList.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56FE41D-E8C8-43B1-B609-EBC0FE9BE889}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$G$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$G$25</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,9 +137,6 @@
   <si>
     <t>学习VS关联Git库及常规操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
   </si>
   <si>
     <t>2018/12/26
@@ -271,11 +267,18 @@
     <t>增加电线、电缆特征型号维护</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>暂不处理</t>
+  </si>
+  <si>
+    <t>经销商编辑功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -581,7 +584,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -656,23 +659,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -708,23 +694,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -900,11 +869,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -938,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
@@ -981,7 +952,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="2:8" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8" ht="49.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -992,11 +963,11 @@
         <v>43445</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="6"/>
     </row>
@@ -1061,7 +1032,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="2:8" ht="214.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:8" ht="214.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -1072,11 +1043,11 @@
         <v>43450</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -1101,7 +1072,7 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="2:8" ht="33" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:8" ht="33" hidden="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -1112,11 +1083,11 @@
         <v>43451</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H11" s="6"/>
     </row>
@@ -1158,7 +1129,7 @@
         <v>43462</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13" s="6"/>
     </row>
@@ -1198,7 +1169,7 @@
         <v>43464</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" s="6"/>
     </row>
@@ -1221,7 +1192,7 @@
       <c r="G16" s="13"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="2:8" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:8" ht="82.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2">
         <v>14</v>
       </c>
@@ -1232,142 +1203,150 @@
         <v>43460</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="2:8" ht="198" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:8" ht="198" hidden="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2">
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="4">
         <v>43464</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2">
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="4">
         <v>43467</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="13"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="B20" s="16">
         <v>17</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="18">
         <v>43467</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>38</v>
+      <c r="E20" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="19"/>
       <c r="H20" s="20"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="B21" s="16">
         <v>18</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="18">
         <v>43471</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>38</v>
+      <c r="E21" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="19"/>
       <c r="H21" s="20"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="B22" s="16">
         <v>19</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" s="18">
         <v>43471</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>38</v>
+      <c r="E22" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="19"/>
       <c r="H22" s="20"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="B23" s="16">
         <v>20</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" s="18">
         <v>43471</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>38</v>
+      <c r="E23" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="19"/>
       <c r="H23" s="20"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="B24" s="16">
         <v>21</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24" s="18">
         <v>43471</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>38</v>
+      <c r="E24" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="19"/>
       <c r="H24" s="20"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="17"/>
+      <c r="B25" s="16">
+        <v>22</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="18">
+        <v>43591</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="F25" s="18"/>
       <c r="G25" s="19"/>
       <c r="H25" s="20"/>
@@ -1391,18 +1370,20 @@
       <c r="H27" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:G18" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="B2:G25">
     <filterColumn colId="3">
       <filters>
-        <filter val="进行中"/>
         <filter val="未开始"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E27" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E25:E27">
       <formula1>"未开始,进行中,已完成"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E24">
+      <formula1>"未开始,进行中,已完成,暂不处理"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
